--- a/biology/Zoologie/Cercotrichas/Cercotrichas.xlsx
+++ b/biology/Zoologie/Cercotrichas/Cercotrichas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cercotrichas regroupe dix espèces d'oiseaux appartenant à la famille des Muscicapidae, dont neuf étaient auparavant placées dans le genre Erythropygia A. Smith, 1836.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>S'appuyant sur diverses études phylogéniques montrant que les espèces du genre Erythropygia et du genre Cercotrichas sont des taxons frères, le Congrès ornithologique international (classification version 4.1, 2014) déplace toutes ses espèces vers le genre Cercotrichas (qui a la priorité car il est antérieur).
-Liste d'espèces
-D'après la classification de référence du Congrès ornithologique international  (1er janvier 2024)[1] (ordre phylogénique) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'appuyant sur diverses études phylogéniques montrant que les espèces du genre Erythropygia et du genre Cercotrichas sont des taxons frères, le Congrès ornithologique international (classification version 4.1, 2014) déplace toutes ses espèces vers le genre Cercotrichas (qui a la priorité car il est antérieur).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cercotrichas</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cercotrichas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence du Congrès ornithologique international  (1er janvier 2024) (ordre phylogénique) :
 Cercotrichas coryphoeus – Agrobate coryphée
 Cercotrichas signata – Agrobate brun
 Cercotrichas leucosticta – Agrobate du Ghana
